--- a/Marketing/kansas.roomme.xlsx
+++ b/Marketing/kansas.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,15 +434,5535 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>caseyrobertspaulson</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>maddix_shook09</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cole_henderson18</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>averyyleavitt</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>jonathan.rogers3</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>gigiselzer</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>william13k</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>robbieclisby</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lilyw3is</t>
+        </is>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>jaylen.weston</t>
+        </is>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>olguner_private</t>
+        </is>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>raeganmorelan</t>
+        </is>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ava.carson_1</t>
+        </is>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ne.howard</t>
+        </is>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>christina.wright.00</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ch.loe21</t>
+        </is>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>janetchall</t>
+        </is>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>yrdnome_</t>
+        </is>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>bradylambert23</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lillian.kmyers</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>_kate_peck_</t>
+        </is>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>elizabethhyeo</t>
+        </is>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>xshaymadden</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>_lexi.lonergan</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sophiamosher23</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rahelm06</t>
+        </is>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>leslie.anette</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>brmcconnell_</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>lilyguinan_</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ladydi00001</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>camrynmacdonald_</t>
+        </is>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>blkcrwninvt</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>twilb22</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>addiereichert</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mel.h10</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>reese.merlau</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>bradyauten</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>grace_abdallah_</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>zwave_wheat</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>katewelch21</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>maddie.holopirek</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sie_rose09</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>parker__clifton</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>joan.hollyw00d</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>_kayla.powell_</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>leroystavern</t>
+        </is>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>noah.j.betts</t>
+        </is>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>reecebellm7</t>
+        </is>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hayden_schawang</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sierraa.holmes</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>carriemadden</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>alyssacangelose</t>
+        </is>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kaci_warren</t>
+        </is>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>taylorlane997</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>caleighryle_</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kenzieheline</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ashtyn.schaeffer</t>
+        </is>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rileyhowess</t>
+        </is>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>malcolm.murchie</t>
+        </is>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>roslauu</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ashendacott</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>greta.hinds</t>
+        </is>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>abruptisland525_525</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>olivia_persing</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>lvnexo</t>
+        </is>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>schenkcameron</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ali_merrenski</t>
+        </is>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>goodsirfish</t>
+        </is>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>tannerslaw</t>
+        </is>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ella_kottenstette</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>alexandrahewitt_</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>abby_allen9</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>c.arlyelizabeth</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>averysilsby44</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dseck72</t>
+        </is>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>erikfoulk</t>
+        </is>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>aryanamoazami</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ssndraw</t>
+        </is>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>korinnhaertling</t>
+        </is>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>jhantla</t>
+        </is>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>shearowley</t>
+        </is>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>maxholdhusen</t>
+        </is>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>dannychezem</t>
+        </is>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>shawnkc14</t>
+        </is>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ellabloomer_</t>
+        </is>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>henry_hossfeld</t>
+        </is>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>abbyhardgree</t>
+        </is>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kyra.miner</t>
+        </is>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>grace.milroy</t>
+        </is>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>brinkleebell</t>
+        </is>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>carlynsmith</t>
+        </is>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>carmenhocking</t>
+        </is>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>courtney.rowe6</t>
+        </is>
+      </c>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>blakempuckett</t>
+        </is>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>john.p.d</t>
+        </is>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hannahweitlich</t>
+        </is>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>tabithadianek</t>
+        </is>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>_sofiatortilla</t>
+        </is>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>_abbyhinrichs_</t>
+        </is>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ellieabele</t>
+        </is>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rgdfour</t>
+        </is>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ktie_sophia</t>
+        </is>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>leighdolann</t>
+        </is>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>jillianjens</t>
+        </is>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>char.gus</t>
+        </is>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>evebertoncino</t>
+        </is>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>thickydickey</t>
+        </is>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>laurenn.deleonn</t>
+        </is>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>dustiswae</t>
+        </is>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>_makaylagreene</t>
+        </is>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>kristaromero_</t>
+        </is>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>josiefinlason</t>
+        </is>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sponitz_</t>
+        </is>
+      </c>
+      <c r="B114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>isaacantopia22</t>
+        </is>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>zarrataylor</t>
+        </is>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>k.smith_71</t>
+        </is>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>taylormbakerr</t>
+        </is>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>kyanamichele</t>
+        </is>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>dayanaracara230</t>
+        </is>
+      </c>
+      <c r="B120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ridgebenker</t>
+        </is>
+      </c>
+      <c r="B121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>billkonen</t>
+        </is>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>mallorymc9</t>
+        </is>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>lebedasteve</t>
+        </is>
+      </c>
+      <c r="B124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>peytonhmoore</t>
+        </is>
+      </c>
+      <c r="B125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sp4eggs</t>
+        </is>
+      </c>
+      <c r="B126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>the_big_b_money</t>
+        </is>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>emilyymuelller</t>
+        </is>
+      </c>
+      <c r="B128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>anniehilgy</t>
+        </is>
+      </c>
+      <c r="B129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>mad_maximum97</t>
+        </is>
+      </c>
+      <c r="B130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sophia.hollis</t>
+        </is>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>cbo752</t>
+        </is>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>delaney.meister</t>
+        </is>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>anong.ngong</t>
+        </is>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>danny.vitztum</t>
+        </is>
+      </c>
+      <c r="B135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>wal3xander</t>
+        </is>
+      </c>
+      <c r="B136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>rita.yanex</t>
+        </is>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>norahmeyer16</t>
+        </is>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>stacyjesse</t>
+        </is>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>jphepler1</t>
+        </is>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>melanielee427</t>
+        </is>
+      </c>
+      <c r="B141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>kadenm_13</t>
+        </is>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>_sam.robertson._</t>
+        </is>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>alyssasobelman</t>
+        </is>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>scott_burrell</t>
+        </is>
+      </c>
+      <c r="B145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>alexomenski</t>
+        </is>
+      </c>
+      <c r="B146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>elder1075</t>
+        </is>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>dmt15071</t>
+        </is>
+      </c>
+      <c r="B148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>oliviaa.mccoy</t>
+        </is>
+      </c>
+      <c r="B149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ava.gilmore</t>
+        </is>
+      </c>
+      <c r="B150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>_susiegreen_</t>
+        </is>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>robertalvarado828</t>
+        </is>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>blancamendeezt</t>
+        </is>
+      </c>
+      <c r="B153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>katecarson0</t>
+        </is>
+      </c>
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>cadenmyers1</t>
+        </is>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>wyattmetcalf4</t>
+        </is>
+      </c>
+      <c r="B156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>swannyjake</t>
+        </is>
+      </c>
+      <c r="B157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>astro_dhwani</t>
+        </is>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>naomi._.marshall</t>
+        </is>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>kristinwoodruff_</t>
+        </is>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>hunter_3613</t>
+        </is>
+      </c>
+      <c r="B161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>tracyhogan</t>
+        </is>
+      </c>
+      <c r="B162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>_gracewilliams46</t>
+        </is>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>sarab__524</t>
+        </is>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>newman2532</t>
+        </is>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>emileisten1</t>
+        </is>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>camryn.strope</t>
+        </is>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>emmaa_grogan</t>
+        </is>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ggabrielle.f_</t>
+        </is>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>camikatzen</t>
+        </is>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>kittycurrent</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>thelawrenceweddingcollective</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>sojags</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>mia_joyyy58</t>
+        </is>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>carson.jenkins</t>
+        </is>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>_susan_starr_</t>
+        </is>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>trentongrubb</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>sbialek17</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>maurice.willi18</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>mitchhughes04</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>kinsey_lamb</t>
+        </is>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>cjbrown419</t>
+        </is>
+      </c>
+      <c r="B182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>stephenallen528</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>mckinley0825</t>
+        </is>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>mackenziefeldman</t>
+        </is>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ben_heise</t>
+        </is>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>_parkercochran_</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>laceyanne29</t>
+        </is>
+      </c>
+      <c r="B188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>reecekaneda</t>
+        </is>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>jacie.myers</t>
+        </is>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>leila_shaheenn</t>
+        </is>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>tori_elizabeth18</t>
+        </is>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>_janesneed</t>
+        </is>
+      </c>
+      <c r="B193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>jaylee.downing</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>_averyvoss</t>
+        </is>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>gracebowlinn</t>
+        </is>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>camrynbliss</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>jennylstone</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>courtneyofie</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>samanthamckayyyy</t>
+        </is>
+      </c>
+      <c r="B200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>luke_juracek6</t>
+        </is>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>eqlcsr</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>e_lehn000_</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>kinsey_rose13</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>amanda.ziebell</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>parker_schultz24</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>sammy.hudgins</t>
+        </is>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>annmaria_paul</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>johnhenry.clark</t>
+        </is>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>jacksonearlfelix</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ashley.stantonn</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>finleybik</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>sam_wendel_</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>krashfit2022</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>jackie_blossom</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>garrett4ivey</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>deuter__</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>madilyn.schadegg</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>katiekarl11</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>cramar26</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>mckenzi5</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>gianna.cowsert</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>kadindunham23</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>rowdiedog17</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>charlotteestrohl</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>dominicklein__</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>gracietakacs</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>nicknickloy</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>tylerr.peterson</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mikenevels</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>a.goetting99</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>peyton_soun</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>elliot.grotzinger</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ks_discgolf</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>case.wyrick</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>cutyr.mansker</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>averyswanson_</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>t0ee.knee</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>mahlia.totten</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>m2340234</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>tjswiet13</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>hayden.ross1</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>tbrock_14_</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>abbyassaad</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>nataliekaylund</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>matthew_angers2</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>serenacschwartz</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>tr3yarthur</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>kcsports69</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>kaylene.taylorr</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>k.bdia</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>amilia.eve</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>braden_coleman03</t>
+        </is>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>macie.briggs42</t>
+        </is>
+      </c>
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>viviriffel</t>
+        </is>
+      </c>
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>dbrown7521</t>
+        </is>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>averyparra</t>
+        </is>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>thoms.kene</t>
+        </is>
+      </c>
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>annaliese_nguyen</t>
+        </is>
+      </c>
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>katelyn.soltow</t>
+        </is>
+      </c>
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>kaylan.cornelius</t>
+        </is>
+      </c>
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>alrichard12</t>
+        </is>
+      </c>
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ki.rupt</t>
+        </is>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>taylorwollenberg</t>
+        </is>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>laurynnroberts</t>
+        </is>
+      </c>
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ekerbs79</t>
+        </is>
+      </c>
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>filmnerdtees</t>
+        </is>
+      </c>
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>whitmanwords</t>
+        </is>
+      </c>
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>terribennettclendenen</t>
+        </is>
+      </c>
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>madelinedeasy</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>adyn.mccaslin</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>taylor_696skelton</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>luke.elley</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>nicolettesansone</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>josh.cecil</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>gabriellalbxn</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>jamiemgabriel</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>zachgurion</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>jess134.5</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>sienas30</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1samwhich</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>danettedm</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>rachbraun</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>bthejayhawk</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>alexisshidler</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>elliegeiger_</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>kylee.pyle</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>evanmyers77</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>triffinfarrar</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>smithh.emilyy</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>jeremy.jacobb</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>lacijthompson</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>bigpapalyon</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>piper.benjamin</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>lukas.miles</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>hunter_tindell</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>tmeltonmeeks</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>makalahwaldrop</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>kyleigh07</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>_ashleyhoffmann</t>
+        </is>
+      </c>
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>fletcherwestfalll_</t>
+        </is>
+      </c>
+      <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>the_real_m7nick</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>jakari_hetep</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>katymurphyyy</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>mrdills19</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>tman_thompson0415</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>kelly.oldridge</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>doering_zach.76</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>jk_louis1845</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>lily_sphar</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>maeve_devlin</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>true.russell</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>carah.dochney</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ethan.curran</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>tstruck86</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>jhands502</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>bigpammy</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>jacque.murrayyy</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>margogojane</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>taylorlashley06</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>jared_harms04</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>tricia_wright31</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>regerliam</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>jordanelliot7353</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>_abdullah.5</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>cbrion_41</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>emilyfritschen</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>aspenpatterson_</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>mrjbhodge</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>_laurakmiller_</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>mbdean71</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>guangyuruan</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>gracesteinerrr</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>madeline.furman</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>kaden.huber</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>juliahanson1</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>andrew_neal4</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>atakanorhnn</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>caseysandersonn</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ethan.cronk</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>sam.kurniadi</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>gk98.35045085</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>oliviadondzila</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>kennedy_yeoman</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>katharinemumert</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>carsonmarsh1</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ashish.singh242</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>caroline__nagel</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>m_kominos0805</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>amanda.koszewski</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>estellabrawk_</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>abbyvossen_</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>osc_aguilera</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>wcjones2</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>bevquiinn</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ceeloo182</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>namastetayy</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>wolfhaley_hd</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>prettybrowneyes_0313</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>kannon_brasch</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>kaceysugrue</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>janaexkuhlman</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ak.klaus</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>grant_schere</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>jaylinnnguyen</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>alexkramer_2</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>broncosmam</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>harrisonalbano_tiktok</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>_tylermassey_</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>imafish_trystone</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>alexathurmann</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>rub6er</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>bdunaway67</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>michelle_xalterrrrr</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>bradenadams__</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>lamarusj</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>andrewpokorny_</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>sirby88</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>amyrosenberg</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>jsmith867530912</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>grasyn.dunsirn</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>jltrouth</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>lillie.sullivan</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>sophiee_buchanan</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>saraabed03</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>clutch.city.coale</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ezystraub</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>magabidelmasv</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>yazminvela._</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ryanlaz11</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>babsmadeit</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>grayson15anderson</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>alicemungamuri</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>lilian_j_mcgrath</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>asssshjk4</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>andrew.durbin04</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>camrynjasnoski</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>skye.kalisch</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>marissa_._m</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>emma.kepley</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>avery_walter_</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>weston_cockrum</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>draney.dw</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>_kaylee42</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>hvandegarde</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>maryann.reddig</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>shelaherickson</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>jacob.eich</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>gmoney_lust</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>hawkaholix</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>itszachmerritt</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>e_li0218</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>char.goldman</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>annie.sween</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>cchloeflowers</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>chloe.kirschner</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>keanbean15</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>akram_khan786_786</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ethanoeck1</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>adam.darst</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>_glreintjes_</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ella.hurtig</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>jacindacommerford</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>caleb.neuburger</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>kenzie.schartz</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>jack_renn</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>chase_warren21</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>emily.lancaster_</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>__maddiecage</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>vey.vos</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>mwmcdonald6791</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>evan.beckcom</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>deweyb22</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>milesrod5611</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>monicaenloe</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>lukasoden._.1</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>ellacrumbaker</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>alex_gillll</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>jasonopat</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>tavo_cavin11</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>zakpetterson</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>sitootissa</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>addison__fey</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>egapsnivek</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>qu.inn7053</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>ashleynmagdalan</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>cadeanderson_</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>breck_luedke</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ellaaabentleyyy</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>antwone_rayford</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>maddieburriesci</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>jack.perr</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>kenz1ecakes</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>brady_faulkner</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>taylorrr.messsaaa</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>mckinnonwaner</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>fayyadmannan</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>folsom2196</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ashlynayerss</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>mckenna_mann05</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>connor.w3lch</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>sophia_aragona</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>landont10</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>avaneeshtrikona</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>libbyswitzerr</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>itsbec2a</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>widelande11</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>hayd_cook1</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>_maaadeline_</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ryan.viscomi</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ammeriahya</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>_annapittman_</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>jadinharrell_3</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>conradcoleman71</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>mmarie8021</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>marina.johnsonn</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>maris.dahl</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>christypatrick29</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>chloejochen04</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>austinmastin</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>areli__jimenez</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>catherinewatkinns</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>dara.gregory</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>karolpatrick1069</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>joe.becher</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>taylor_stimac</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>therealjmp</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>norah.alasmar</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>bret.richardson</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>mohd.ayan7872</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>ronith_murthy</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>mackenzieleisten</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>taylor.rantz</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>michelleballon8</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>belindasosnow</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>reeseruby17</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>lilyjensen38</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>isaac_tyler28</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>andrewyu_investor</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>elleterstriep</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>erik.salcido</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>rsrog13</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>mimii.27</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>llsofial</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>maddie_powell__</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>al3xmut</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>declclan</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>kayleeotte12</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>emily_erker</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>brinley.enz</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>rileemorrow</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>taylupardusss</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>nancyguzzzman</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>efb913</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>lahayes91</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>rosemaryngo_</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>shelbybran_</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>mimi.mcleay</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>caliriley05</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>mariaraglow_</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>chance.matlock</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>masonmeinershagen</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>m.gates7</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>ashleymuir13</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>go.n.bac.2.ca</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>anniebastien02</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>maybrietaliaferro</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>sophieweinrichh</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>kh352</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>sleepingtiger41</t>
+        </is>
+      </c>
+      <c r="B530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>hubbeard</t>
+        </is>
+      </c>
+      <c r="B531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>madelineeee_c</t>
+        </is>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>louisejcaron</t>
+        </is>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>erin.tatee</t>
+        </is>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>_selmabasic</t>
+        </is>
+      </c>
+      <c r="B535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>duke_thenuke8</t>
+        </is>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>liamwier</t>
+        </is>
+      </c>
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>_emmamoraless_</t>
+        </is>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>culliemihalchik</t>
+        </is>
+      </c>
+      <c r="B539" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>ben.weiland</t>
+        </is>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>oliviatuttlee</t>
+        </is>
+      </c>
+      <c r="B541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>marli.gorbet</t>
+        </is>
+      </c>
+      <c r="B542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>graysonkuter4</t>
+        </is>
+      </c>
+      <c r="B543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>real_mrs_c</t>
+        </is>
+      </c>
+      <c r="B544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>brklynn.tatum</t>
+        </is>
+      </c>
+      <c r="B545" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>ali.dufield</t>
+        </is>
+      </c>
+      <c r="B546" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>danasaur79</t>
+        </is>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>_lindsay_harris</t>
+        </is>
+      </c>
+      <c r="B548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>owen.gulick</t>
+        </is>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>osredmon</t>
+        </is>
+      </c>
+      <c r="B550" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>adelineraebel</t>
+        </is>
+      </c>
+      <c r="B551" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>jacksondillonblakley</t>
+        </is>
+      </c>
+      <c r="B552" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>puki7877</t>
+        </is>
+      </c>
+      <c r="B553" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Marketing/kansas.roomme.xlsx
+++ b/Marketing/kansas.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/kansas.roomme.xlsx
+++ b/Marketing/kansas.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>caseyrobertspaulson</t>
+          <t>jack.perr</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>maddix_shook09</t>
+          <t>lillie.sullivan</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cole_henderson18</t>
+          <t>_parkercochran_</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>averyyleavitt</t>
+          <t>evanmyers77</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jonathan.rogers3</t>
+          <t>ashyratliff</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gigiselzer</t>
+          <t>rosemaryngo_</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>william13k</t>
+          <t>janetchall</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>robbieclisby</t>
+          <t>gracebowlinn</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lilyw3is</t>
+          <t>andrewyu_investor</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaylen.weston</t>
+          <t>ben_heise</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>olguner_private</t>
+          <t>ryanlaz11</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>raeganmorelan</t>
+          <t>biankamalinovic</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ava.carson_1</t>
+          <t>hayd_cook1</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ne.howard</t>
+          <t>ash_a_ley_nicole05</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>christina.wright.00</t>
+          <t>aryanamoazami</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ch.loe21</t>
+          <t>cali_foltz</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>janetchall</t>
+          <t>blkcrwninvt</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>yrdnome_</t>
+          <t>larahdautrich</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bradylambert23</t>
+          <t>mimii.27</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lillian.kmyers</t>
+          <t>namastetayy</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_kate_peck_</t>
+          <t>taylor_yost_1997</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>elizabethhyeo</t>
+          <t>lilyjensen38</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>xshaymadden</t>
+          <t>juliahanson1</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_lexi.lonergan</t>
+          <t>grace.kathryn13</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sophiamosher23</t>
+          <t>logan._12</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rahelm06</t>
+          <t>emilyy.bliss</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>leslie.anette</t>
+          <t>samstallardreal</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>brmcconnell_</t>
+          <t>k__pedi</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lilyguinan_</t>
+          <t>ethan.curran</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ladydi00001</t>
+          <t>ellerycorcoran</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>camrynmacdonald_</t>
+          <t>carson.jenkins</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>blkcrwninvt</t>
+          <t>wyatt__harris</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>twilb22</t>
+          <t>erinsmith.11</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>addiereichert</t>
+          <t>_nataliejenk</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mel.h10</t>
+          <t>alexomenski</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>reese.merlau</t>
+          <t>sitootissa</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bradyauten</t>
+          <t>bc_stockwood</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>grace_abdallah_</t>
+          <t>alexathurmann</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zwave_wheat</t>
+          <t>cadeanderson_</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>katewelch21</t>
+          <t>chloejochen04</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>maddie.holopirek</t>
+          <t>summerpattersonnn</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sie_rose09</t>
+          <t>baudiss5</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>parker__clifton</t>
+          <t>xshaymadden</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>joan.hollyw00d</t>
+          <t>aly.beyer</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>_kayla.powell_</t>
+          <t>selma.khokher</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>leroystavern</t>
+          <t>thickydickey</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>noah.j.betts</t>
+          <t>zach_spittler2</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>reecebellm7</t>
+          <t>taylor.rantz</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hayden_schawang</t>
+          <t>emily_erker</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sierraa.holmes</t>
+          <t>goodsirfish</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>carriemadden</t>
+          <t>macy.rathe</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>alyssacangelose</t>
+          <t>caleighryle_</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kaci_warren</t>
+          <t>dara.gregory</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>taylorlane997</t>
+          <t>_emmamoraless_</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>caleighryle_</t>
+          <t>emmarogler</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kenzieheline</t>
+          <t>jmasrud</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ashtyn.schaeffer</t>
+          <t>sbialek17</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rileyhowess</t>
+          <t>tyrabogle</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>malcolm.murchie</t>
+          <t>cole_henderson18</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>roslauu</t>
+          <t>efb913</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ashendacott</t>
+          <t>_katepeck</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>greta.hinds</t>
+          <t>nicolettesansone</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>abruptisland525_525</t>
+          <t>jackweisy05</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>olivia_persing</t>
+          <t>_maaadeline_</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>lvnexo</t>
+          <t>erik_the_schank</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>schenkcameron</t>
+          <t>t_samps217</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ali_merrenski</t>
+          <t>halliemarie_7</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>goodsirfish</t>
+          <t>luke_juracek6</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tannerslaw</t>
+          <t>itszachmerritt</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ella_kottenstette</t>
+          <t>shawnkc14</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>alexandrahewitt_</t>
+          <t>henry_hossfeld</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>abby_allen9</t>
+          <t>lvnexo</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>c.arlyelizabeth</t>
+          <t>owen.gulick</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>averysilsby44</t>
+          <t>maddieburriesci</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dseck72</t>
+          <t>camrynjasnoski</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>erikfoulk</t>
+          <t>louisejcaron</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>aryanamoazami</t>
+          <t>jillian_fishback</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ssndraw</t>
+          <t>1samwhich</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>korinnhaertling</t>
+          <t>alexandra_henry_</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jhantla</t>
+          <t>rja_v</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>shearowley</t>
+          <t>belindasosnow</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>maxholdhusen</t>
+          <t>conradcoleman71</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dannychezem</t>
+          <t>madi.grace.3</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>shawnkc14</t>
+          <t>kh352</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ellabloomer_</t>
+          <t>angelina.santiago13</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>henry_hossfeld</t>
+          <t>schenkcameron</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>abbyhardgree</t>
+          <t>courtney.rowe6</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kyra.miner</t>
+          <t>taylor_stimac</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>grace.milroy</t>
+          <t>connor.w3lch</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>brinkleebell</t>
+          <t>sierraa.holmes</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>carlynsmith</t>
+          <t>sevdetatli_</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>carmenhocking</t>
+          <t>maddie_powell__</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>courtney.rowe6</t>
+          <t>gracekrone</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>blakempuckett</t>
+          <t>cbo752</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>john.p.d</t>
+          <t>emmafaulkner_</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hannahweitlich</t>
+          <t>mackenzie_keltner</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>tabithadianek</t>
+          <t>larra.j.lee</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_sofiatortilla</t>
+          <t>mariaraglow_</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>_abbyhinrichs_</t>
+          <t>deuter__</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ellieabele</t>
+          <t>taylor_696skelton</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>rgdfour</t>
+          <t>grace.diers</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ktie_sophia</t>
+          <t>magabidelmasv</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>leighdolann</t>
+          <t>aaronscaletty</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>jillianjens</t>
+          <t>tianna.harle</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>char.gus</t>
+          <t>ceeloo182</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>evebertoncino</t>
+          <t>monicaenloe</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>thickydickey</t>
+          <t>midwestdude420</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>laurenn.deleonn</t>
+          <t>ks_discgolf</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dustiswae</t>
+          <t>kenzieheline</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>_makaylagreene</t>
+          <t>abruptisland525_525</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>kristaromero_</t>
+          <t>a.goetting99</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>josiefinlason</t>
+          <t>schmidt.03</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sponitz_</t>
+          <t>osc_aguilera</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>isaacantopia22</t>
+          <t>kittycurrent</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>zarrataylor</t>
+          <t>_sam.robertson._</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>k.smith_71</t>
+          <t>joestakerr</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>taylormbakerr</t>
+          <t>_rishabh_chaudhary___</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>kyanamichele</t>
+          <t>leroystavern</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dayanaracara230</t>
+          <t>true.russell</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ridgebenker</t>
+          <t>jalexmendez._</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>billkonen</t>
+          <t>amanda.ziebell</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mallorymc9</t>
+          <t>sandovall001</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lebedasteve</t>
+          <t>adyn.mccaslin</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>peytonhmoore</t>
+          <t>jaylen.weston</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>sp4eggs</t>
+          <t>lilyw3is</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>the_big_b_money</t>
+          <t>clutch.city.coale</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>emilyymuelller</t>
+          <t>maddie.le</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>anniehilgy</t>
+          <t>puki7877</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>mad_maximum97</t>
+          <t>ryan.viscomi</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sophia.hollis</t>
+          <t>ewezzy3011</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>cbo752</t>
+          <t>annaliese_nguyen</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>delaney.meister</t>
+          <t>trentongrubb</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>anong.ngong</t>
+          <t>edgar_flores_31</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>danny.vitztum</t>
+          <t>robbieclisby</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>wal3xander</t>
+          <t>kyleleblancc</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>rita.yanex</t>
+          <t>melanielee427</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>norahmeyer16</t>
+          <t>graceemilyburns</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>stacyjesse</t>
+          <t>ch.loe21</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jphepler1</t>
+          <t>hunter_3613</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>melanielee427</t>
+          <t>suttonlilyy</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>kadenm_13</t>
+          <t>delaney.kos</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>_sam.robertson._</t>
+          <t>emilyfritschen</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>alyssasobelman</t>
+          <t>norah.alasmar</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>scott_burrell</t>
+          <t>wal3xander</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>alexomenski</t>
+          <t>jackie_blossom</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>elder1075</t>
+          <t>ashlynayerss</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>dmt15071</t>
+          <t>haeleigh2</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>oliviaa.mccoy</t>
+          <t>elliegeiger_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ava.gilmore</t>
+          <t>__maddiecage</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>_susiegreen_</t>
+          <t>kira.vxz</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>robertalvarado828</t>
+          <t>smithh.emilyy</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>blancamendeezt</t>
+          <t>case.wyrick</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>katecarson0</t>
+          <t>weston_cockrum</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cadenmyers1</t>
+          <t>jakari_hetep</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>wyattmetcalf4</t>
+          <t>kaydenrodgers32</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>swannyjake</t>
+          <t>brinkleebell</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>astro_dhwani</t>
+          <t>emilyyderrico</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>naomi._.marshall</t>
+          <t>regerliam</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>kristinwoodruff_</t>
+          <t>amelia.congdon</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>hunter_3613</t>
+          <t>olivia.pirro</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>tracyhogan</t>
+          <t>triffinfarrar</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_gracewilliams46</t>
+          <t>laurynnroberts</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>sarab__524</t>
+          <t>erik.salcido</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>newman2532</t>
+          <t>tyadrennen</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>emileisten1</t>
+          <t>hermelasolomonn</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>camryn.strope</t>
+          <t>caroline__nagel</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>emmaa_grogan</t>
+          <t>macie.briggs42</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ggabrielle.f_</t>
+          <t>vey.vos</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>camikatzen</t>
+          <t>vaniaarora</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>kittycurrent</t>
+          <t>mamaremp</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>thelawrenceweddingcollective</t>
+          <t>_abdullah.5</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sojags</t>
+          <t>b_coxie26</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>mia_joyyy58</t>
+          <t>megan.ricee</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>carson.jenkins</t>
+          <t>stouslee</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>_susan_starr_</t>
+          <t>areli__jimenez</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>trentongrubb</t>
+          <t>kyanamichele</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>sbialek17</t>
+          <t>kinsey_lamb</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>maurice.willi18</t>
+          <t>k.bdia</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>mitchhughes04</t>
+          <t>jack_renn</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>kinsey_lamb</t>
+          <t>amyrosenberg</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>cjbrown419</t>
+          <t>sami.milk</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>stephenallen528</t>
+          <t>rlickteig0</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mckinley0825</t>
+          <t>aritheonly004</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>mackenziefeldman</t>
+          <t>lillian.kmyers</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ben_heise</t>
+          <t>andymcmindes</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_parkercochran_</t>
+          <t>m2340234</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>laceyanne29</t>
+          <t>saraabed03</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>reecekaneda</t>
+          <t>ak.klaus</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jacie.myers</t>
+          <t>gracie_dobson</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>leila_shaheenn</t>
+          <t>_susan_starr_</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>tori_elizabeth18</t>
+          <t>taylorrr.messsaaa</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>_janesneed</t>
+          <t>johnhenry.clark</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>jaylee.downing</t>
+          <t>alexaloren__</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>_averyvoss</t>
+          <t>h.g.hermann</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>gracebowlinn</t>
+          <t>angel_14vasquez</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>camrynbliss</t>
+          <t>annie.sween</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jennylstone</t>
+          <t>frijolero._.zz</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>courtneyofie</t>
+          <t>blancamendeezt</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>samanthamckayyyy</t>
+          <t>jared_harms04</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>luke_juracek6</t>
+          <t>babybell333</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,1407 +2448,1407 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>eqlcsr</t>
+          <t>avery.radosta</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>e_lehn000_</t>
+          <t>gabe_pierce27</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>kinsey_rose13</t>
+          <t>_ashleyhoffmann</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>amanda.ziebell</t>
+          <t>kaylene.taylorr</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>parker_schultz24</t>
+          <t>averyswanson_</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sammy.hudgins</t>
+          <t>mikenevels</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>annmaria_paul</t>
+          <t>serenacschwartz</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>johnhenry.clark</t>
+          <t>maeve_devlin</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jacksonearlfelix</t>
+          <t>sydney.mingucci</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ashley.stantonn</t>
+          <t>lilli.scopino</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>finleybik</t>
+          <t>carriemadden</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>sam_wendel_</t>
+          <t>_lindsay_harris</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>krashfit2022</t>
+          <t>atakanorhnn</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>jackie_blossom</t>
+          <t>ethan.cronk</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>garrett4ivey</t>
+          <t>abbyvossen_</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>deuter__</t>
+          <t>breckynbeatyy</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>madilyn.schadegg</t>
+          <t>bthejayhawk</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>katiekarl11</t>
+          <t>blakempuckett</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>cramar26</t>
+          <t>katiekarl11</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>mckenzi5</t>
+          <t>grayson15anderson</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>gianna.cowsert</t>
+          <t>paytoncbenoit</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>kadindunham23</t>
+          <t>leila_shaheenn</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>rowdiedog17</t>
+          <t>_laurakmiller_</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>charlotteestrohl</t>
+          <t>bret.richardson</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>dominicklein__</t>
+          <t>tori_elizabeth18</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>gracietakacs</t>
+          <t>jack.flynnnn</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>nicknickloy</t>
+          <t>brookefarringtonn_</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>tylerr.peterson</t>
+          <t>jacindacommerford</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>mikenevels</t>
+          <t>mackenziefeldman</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>a.goetting99</t>
+          <t>austinmastin</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>peyton_soun</t>
+          <t>piper.privat_</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>elliot.grotzinger</t>
+          <t>ki.rupt</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ks_discgolf</t>
+          <t>bdunaway67</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>case.wyrick</t>
+          <t>peytonhmoore</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>cutyr.mansker</t>
+          <t>robertalvarado828</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>averyswanson_</t>
+          <t>mad_maximum97</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t0ee.knee</t>
+          <t>ellagawronski</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>mahlia.totten</t>
+          <t>filmnerdtees</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>m2340234</t>
+          <t>sriya.annem</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>tjswiet13</t>
+          <t>alicemungamuri</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>hayden.ross1</t>
+          <t>ethanc_c11</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>tbrock_14_</t>
+          <t>sam_wendel_</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>abbyassaad</t>
+          <t>ezierott23</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>nataliekaylund</t>
+          <t>kinsey_rose13</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>matthew_angers2</t>
+          <t>ronith_murthy</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>serenacschwartz</t>
+          <t>krashfit2022</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>tr3yarthur</t>
+          <t>mmarie8021</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>kcsports69</t>
+          <t>janaexkuhlman</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>kaylene.taylorr</t>
+          <t>kozmo.guerra</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>k.bdia</t>
+          <t>go.n.bac.2.ca</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>amilia.eve</t>
+          <t>emma.jane.schaffer</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>braden_coleman03</t>
+          <t>matthew_angers2</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>macie.briggs42</t>
+          <t>jacksondillonblakley</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>viviriffel</t>
+          <t>skye.kalisch</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>dbrown7521</t>
+          <t>imafish_trystone</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>averyparra</t>
+          <t>jaylinnnguyen</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>thoms.kene</t>
+          <t>kenzie.schartz</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>annaliese_nguyen</t>
+          <t>dasiebert04</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>katelyn.soltow</t>
+          <t>libbyswitzerr</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kaylan.cornelius</t>
+          <t>mckenzi5</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>alrichard12</t>
+          <t>therealjmp</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ki.rupt</t>
+          <t>lebedasteve</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>taylorwollenberg</t>
+          <t>gracedesbien</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>laurynnroberts</t>
+          <t>mcgwyre_</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ekerbs79</t>
+          <t>addihocking</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>filmnerdtees</t>
+          <t>annaortizspencer</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>whitmanwords</t>
+          <t>dyllan.sourk</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>terribennettclendenen</t>
+          <t>reecekaneda</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>madelinedeasy</t>
+          <t>kayleeknobel</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>adyn.mccaslin</t>
+          <t>gracesteinerrr</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>taylor_696skelton</t>
+          <t>zo3.wiggin</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>luke.elley</t>
+          <t>sami_hami27</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>nicolettesansone</t>
+          <t>alyssacangelose</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>josh.cecil</t>
+          <t>amelia.westphal</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>gabriellalbxn</t>
+          <t>darian_j_04</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jamiemgabriel</t>
+          <t>mimi.mcleay</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>zachgurion</t>
+          <t>oliviarjohnston</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jess134.5</t>
+          <t>jacksonrmcm</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sienas30</t>
+          <t>ellieabele</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1samwhich</t>
+          <t>josh.cecil</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>danettedm</t>
+          <t>rylee__jayde</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>rachbraun</t>
+          <t>wcjones2</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>bthejayhawk</t>
+          <t>ella_kottenstette</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>alexisshidler</t>
+          <t>jacie.myers</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>elliegeiger_</t>
+          <t>piper.benjamin</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>kylee.pyle</t>
+          <t>la_weaver_20</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>evanmyers77</t>
+          <t>babsmadeit</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>triffinfarrar</t>
+          <t>lucas_adcock_</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>smithh.emilyy</t>
+          <t>sponitz_</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jeremy.jacobb</t>
+          <t>laurynlfrerichs</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>lacijthompson</t>
+          <t>breck_luedke</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>bigpapalyon</t>
+          <t>grace_abdallah_</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>piper.benjamin</t>
+          <t>bigpammy</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>lukas.miles</t>
+          <t>casherikson</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>hunter_tindell</t>
+          <t>jasonopat</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>tmeltonmeeks</t>
+          <t>antwone_rayford</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>makalahwaldrop</t>
+          <t>mary.m.2023</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>kyleigh07</t>
+          <t>bevquiinn</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>_ashleyhoffmann</t>
+          <t>_makaylagreene</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>fletcherwestfalll_</t>
+          <t>troehl10.0</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>the_real_m7nick</t>
+          <t>ukansas2028</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jakari_hetep</t>
+          <t>amyrtaylorrr</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>katymurphyyy</t>
+          <t>oliviadondzila</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>mrdills19</t>
+          <t>stephenallen528</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>tman_thompson0415</t>
+          <t>_guskobs_</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>kelly.oldridge</t>
+          <t>bellaaavictoriaaa</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>doering_zach.76</t>
+          <t>victoriacdallas</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>jk_louis1845</t>
+          <t>ezystraub</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>lily_sphar</t>
+          <t>crpdog</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>maeve_devlin</t>
+          <t>freshoil_loosegravel</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>true.russell</t>
+          <t>kylee.pyle</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>carah.dochney</t>
+          <t>m_kominos0805</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ethan.curran</t>
+          <t>haylee.litzinger</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>tstruck86</t>
+          <t>scottwyllie380</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>jhands502</t>
+          <t>drakeon45</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>bigpammy</t>
+          <t>camryn.strope</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>jacque.murrayyy</t>
+          <t>tyler.greer03</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>margogojane</t>
+          <t>sophiee_buchanan</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>taylorlashley06</t>
+          <t>andrew.durbin04</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jared_harms04</t>
+          <t>lowe5784</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>tricia_wright31</t>
+          <t>cecily.jacobsen</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>regerliam</t>
+          <t>eli.bush22</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>jordanelliot7353</t>
+          <t>duke_thenuke8</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>_abdullah.5</t>
+          <t>_susiegreen_</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>cbrion_41</t>
+          <t>ashleymuir13</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>emilyfritschen</t>
+          <t>masonmeinershagen</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>aspenpatterson_</t>
+          <t>laceyanne29</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>mrjbhodge</t>
+          <t>korin.gonzales</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>_laurakmiller_</t>
+          <t>tavo_cavin11</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>mbdean71</t>
+          <t>char.goldman</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>guangyuruan</t>
+          <t>garrett4ivey</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>gracesteinerrr</t>
+          <t>ne.howard</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>madeline.furman</t>
+          <t>zachgurion</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>kaden.huber</t>
+          <t>lee.wolf.581</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>juliahanson1</t>
+          <t>evebertoncino</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>andrew_neal4</t>
+          <t>sophia_herrera04</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>atakanorhnn</t>
+          <t>madelinedeasy</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>caseysandersonn</t>
+          <t>alrichard12</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ethan.cronk</t>
+          <t>ssndraw</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>sam.kurniadi</t>
+          <t>kaceysugrue</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>gk98.35045085</t>
+          <t>terynkf</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>oliviadondzila</t>
+          <t>brendanlowden</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>kennedy_yeoman</t>
+          <t>hannah.connelly_</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>katharinemumert</t>
+          <t>dseck72</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>carsonmarsh1</t>
+          <t>tmeltonmeeks</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ashish.singh242</t>
+          <t>ava.s012</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>caroline__nagel</t>
+          <t>iz_jae</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>m_kominos0805</t>
+          <t>david.giem</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>amanda.koszewski</t>
+          <t>naba_zaheer</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>estellabrawk_</t>
+          <t>samanthamckayyyy</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>abbyvossen_</t>
+          <t>kulovebirds</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>osc_aguilera</t>
+          <t>michelleballon8</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>wcjones2</t>
+          <t>rub6er</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>bevquiinn</t>
+          <t>mel.h10</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ceeloo182</t>
+          <t>andrewpokorny_</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>namastetayy</t>
+          <t>tracyhogan</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>wolfhaley_hd</t>
+          <t>anniebastien02</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>prettybrowneyes_0313</t>
+          <t>itsbec2a</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>kannon_brasch</t>
+          <t>kaden.huber</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>kaceysugrue</t>
+          <t>bpgarlett</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>janaexkuhlman</t>
+          <t>harrisonalbano_tiktok</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ak.klaus</t>
+          <t>ashtyn.schaeffer</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>grant_schere</t>
+          <t>mackenzieleisten</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>jaylinnnguyen</t>
+          <t>erin.tatee</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>alexkramer_2</t>
+          <t>kylie.hawes</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>broncosmam</t>
+          <t>elizabethsersen</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>harrisonalbano_tiktok</t>
+          <t>_tylermassey_</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>_tylermassey_</t>
+          <t>taylorlane997</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>imafish_trystone</t>
+          <t>mckenna_mann05</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>alexathurmann</t>
+          <t>austint.munoz</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>rub6er</t>
+          <t>isaac_tyler28</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>bdunaway67</t>
+          <t>ashleynmagdalan</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>michelle_xalterrrrr</t>
+          <t>adam.darst</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>bradenadams__</t>
+          <t>joe.becher</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>lamarusj</t>
+          <t>presli.harts</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>andrewpokorny_</t>
+          <t>braden_coleman03</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>sirby88</t>
+          <t>elizabethhyeo</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>amyrosenberg</t>
+          <t>bdoolwalsh</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>jsmith867530912</t>
+          <t>katharinemumert</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>grasyn.dunsirn</t>
+          <t>courtneyofie</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>jltrouth</t>
+          <t>ridgebenker</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>lillie.sullivan</t>
+          <t>margogojane</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>sophiee_buchanan</t>
+          <t>madeline.furman</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>saraabed03</t>
+          <t>culliemihalchik</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>clutch.city.coale</t>
+          <t>kamrynk1210</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ezystraub</t>
+          <t>jacob_wohlrabe</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>magabidelmasv</t>
+          <t>isaac.lacroix74</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>yazminvela._</t>
+          <t>taylupardusss</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ryanlaz11</t>
+          <t>ali.dufield</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>babsmadeit</t>
+          <t>kristaromero_</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>grayson15anderson</t>
+          <t>maxholdhusen</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>alicemungamuri</t>
+          <t>cmerrick13</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>lilian_j_mcgrath</t>
+          <t>abby_allen9</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>asssshjk4</t>
+          <t>turley.hugh</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>andrew.durbin04</t>
+          <t>tylernishi</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>camrynjasnoski</t>
+          <t>aaronnlewisss</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>skye.kalisch</t>
+          <t>rileyhowess</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>marissa_._m</t>
+          <t>chase_warren21</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>emma.kepley</t>
+          <t>the_big_b_money</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>avery_walter_</t>
+          <t>schrum_25</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>weston_cockrum</t>
+          <t>alexisshidler</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>draney.dw</t>
+          <t>tsteele85</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>_kaylee42</t>
+          <t>terribennettclendenen</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>hvandegarde</t>
+          <t>zoethrom</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>maryann.reddig</t>
+          <t>tjswiet13</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>shelaherickson</t>
+          <t>adelineraebel</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>jacob.eich</t>
+          <t>lexieheltmach</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>gmoney_lust</t>
+          <t>hannaheallen</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>hawkaholix</t>
+          <t>bradylambert23</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>itszachmerritt</t>
+          <t>folsom2196</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>e_li0218</t>
+          <t>harleyyallen</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>char.goldman</t>
+          <t>kristinwoodruff_</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>annie.sween</t>
+          <t>dee.erb</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>cchloeflowers</t>
+          <t>jillianjens</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>chloe.kirschner</t>
+          <t>sophia.hollis</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>keanbean15</t>
+          <t>hawkaholix</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>akram_khan786_786</t>
+          <t>tovekrussow</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ethanoeck1</t>
+          <t>cole_guion</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>adam.darst</t>
+          <t>nguyen_bee</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>_glreintjes_</t>
+          <t>gabbie.schultz</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ella.hurtig</t>
+          <t>finleybik</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>jacindacommerford</t>
+          <t>bigloukc</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>caleb.neuburger</t>
+          <t>grace_ely123</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>kenzie.schartz</t>
+          <t>real_mrs_c</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>jack_renn</t>
+          <t>alexandrahewitt_</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>chase_warren21</t>
+          <t>alyssasobelman</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>emily.lancaster_</t>
+          <t>grant_schere</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>__maddiecage</t>
+          <t>alisejacqueline</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>vey.vos</t>
+          <t>maddie.holopirek</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>mwmcdonald6791</t>
+          <t>ladydi00001</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>evan.beckcom</t>
+          <t>another_username_gone</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>deweyb22</t>
+          <t>rsrog13</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>milesrod5611</t>
+          <t>rowdiedog17</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>monicaenloe</t>
+          <t>ellacrumbaker</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>lukasoden._.1</t>
+          <t>mitchhughes04</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ellacrumbaker</t>
+          <t>reek.dillard</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>alex_gillll</t>
+          <t>wolfhaley_hd</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>jasonopat</t>
+          <t>joan.hollyw00d</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>tavo_cavin11</t>
+          <t>cbrion_41</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>zakpetterson</t>
+          <t>nicolleguillen4</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>sitootissa</t>
+          <t>sara_seibold</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>addison__fey</t>
+          <t>eli.dougan</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>egapsnivek</t>
+          <t>dominicklein__</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>qu.inn7053</t>
+          <t>k.svanacker</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ashleynmagdalan</t>
+          <t>jamiemgabriel</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>cadeanderson_</t>
+          <t>ali_merrenski</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>breck_luedke</t>
+          <t>ashley.stantonn</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ellaaabentleyyy</t>
+          <t>rileemorrow</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>antwone_rayford</t>
+          <t>nataliekaylund</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>maddieburriesci</t>
+          <t>parker__clifton</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>jack.perr</t>
+          <t>whitmanwords</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>kenz1ecakes</t>
+          <t>camrynbliss</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>brady_faulkner</t>
+          <t>livielebeau</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>taylorrr.messsaaa</t>
+          <t>tessfay_</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,980 +4988,10 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>mckinnonwaner</t>
+          <t>erikfoulk</t>
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>fayyadmannan</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>folsom2196</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>ashlynayerss</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>mckenna_mann05</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>connor.w3lch</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>sophia_aragona</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>landont10</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>avaneeshtrikona</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>libbyswitzerr</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>itsbec2a</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>widelande11</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>hayd_cook1</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>_maaadeline_</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>ryan.viscomi</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>ammeriahya</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>_annapittman_</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>jadinharrell_3</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>conradcoleman71</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>mmarie8021</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>marina.johnsonn</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>maris.dahl</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>christypatrick29</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>chloejochen04</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>austinmastin</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>areli__jimenez</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>catherinewatkinns</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>dara.gregory</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>karolpatrick1069</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>joe.becher</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>taylor_stimac</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>therealjmp</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>norah.alasmar</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>bret.richardson</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>mohd.ayan7872</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>ronith_murthy</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>mackenzieleisten</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>taylor.rantz</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>michelleballon8</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>belindasosnow</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>reeseruby17</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>lilyjensen38</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>isaac_tyler28</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>andrewyu_investor</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>elleterstriep</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>erik.salcido</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>rsrog13</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>mimii.27</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>llsofial</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>maddie_powell__</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>al3xmut</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>declclan</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>kayleeotte12</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>emily_erker</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>brinley.enz</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>rileemorrow</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>taylupardusss</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>nancyguzzzman</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>efb913</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>lahayes91</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>rosemaryngo_</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>shelbybran_</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>mimi.mcleay</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>caliriley05</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>mariaraglow_</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>chance.matlock</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>masonmeinershagen</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>m.gates7</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>ashleymuir13</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>go.n.bac.2.ca</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>anniebastien02</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>maybrietaliaferro</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>sophieweinrichh</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>kh352</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>sleepingtiger41</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>hubbeard</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>madelineeee_c</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>louisejcaron</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>erin.tatee</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>_selmabasic</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>duke_thenuke8</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>liamwier</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>_emmamoraless_</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>culliemihalchik</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>ben.weiland</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>oliviatuttlee</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>marli.gorbet</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>graysonkuter4</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>real_mrs_c</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>brklynn.tatum</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>ali.dufield</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>danasaur79</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>_lindsay_harris</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>owen.gulick</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>osredmon</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>adelineraebel</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>jacksondillonblakley</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>puki7877</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/kansas.roomme.xlsx
+++ b/Marketing/kansas.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jack.perr</t>
+          <t>sydney.mingucci</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lillie.sullivan</t>
+          <t>hayd_cook1</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_parkercochran_</t>
+          <t>kinsey_rose13</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>evanmyers77</t>
+          <t>margogojane</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ashyratliff</t>
+          <t>aaronnlewisss</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rosemaryngo_</t>
+          <t>mackenziefeldman</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>janetchall</t>
+          <t>karlitaa._.t</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gracebowlinn</t>
+          <t>garrett4ivey</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>andrewyu_investor</t>
+          <t>sandovall001</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ben_heise</t>
+          <t>grace.kathryn13</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ryanlaz11</t>
+          <t>amyrosenberg</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>biankamalinovic</t>
+          <t>blkcrwninvt</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hayd_cook1</t>
+          <t>macy.rathe</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ash_a_ley_nicole05</t>
+          <t>madelinedeasy</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aryanamoazami</t>
+          <t>selma.khokher</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cali_foltz</t>
+          <t>caden.petzold</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>blkcrwninvt</t>
+          <t>ella_kottenstette</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>larahdautrich</t>
+          <t>rileydempseyy</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mimii.27</t>
+          <t>joseph.mitchell.3</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>namastetayy</t>
+          <t>blancamendeezt</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>taylor_yost_1997</t>
+          <t>ezierott23</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lilyjensen38</t>
+          <t>1samwhich</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>juliahanson1</t>
+          <t>cramar26</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>grace.kathryn13</t>
+          <t>liamwier</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>logan._12</t>
+          <t>emma.jane.schaffer</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>emilyy.bliss</t>
+          <t>luke_juracek6</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>samstallardreal</t>
+          <t>dee.erb</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>k__pedi</t>
+          <t>asherbeltrand.23</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethan.curran</t>
+          <t>ellaaabentleyyy</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ellerycorcoran</t>
+          <t>braden_coleman03</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>carson.jenkins</t>
+          <t>ellacrumbaker</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wyatt__harris</t>
+          <t>true.russell</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>erinsmith.11</t>
+          <t>isaac.lacroix74</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_nataliejenk</t>
+          <t>mrdills19</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>alexomenski</t>
+          <t>laurynnroberts</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sitootissa</t>
+          <t>ks_discgolf</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bc_stockwood</t>
+          <t>david.giem</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>alexathurmann</t>
+          <t>emilyy.bliss</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cadeanderson_</t>
+          <t>charlotteestrohl</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>chloejochen04</t>
+          <t>coddi.womplee</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>summerpattersonnn</t>
+          <t>grace.diers</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>baudiss5</t>
+          <t>nicolleguillen4</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>xshaymadden</t>
+          <t>shelaherickson</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aly.beyer</t>
+          <t>lvnexo</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>selma.khokher</t>
+          <t>bradylambert23</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>thickydickey</t>
+          <t>kristen.millspaugh</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>zach_spittler2</t>
+          <t>ava.s012</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>taylor.rantz</t>
+          <t>ashleymuir13</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>emily_erker</t>
+          <t>ava.gilmore</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>goodsirfish</t>
+          <t>tsteele85</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>macy.rathe</t>
+          <t>erinsmith.11</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>caleighryle_</t>
+          <t>tylernishi</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>dara.gregory</t>
+          <t>char.gus</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_emmamoraless_</t>
+          <t>egapsnivek</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>emmarogler</t>
+          <t>brmcconnell_</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>jmasrud</t>
+          <t>tracyhogan</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sbialek17</t>
+          <t>namastetayy</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>tyrabogle</t>
+          <t>culliemihalchik</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cole_henderson18</t>
+          <t>sponitz_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>efb913</t>
+          <t>ashley.stantonn</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>_katepeck</t>
+          <t>deuter__</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>nicolettesansone</t>
+          <t>ellieabele</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jackweisy05</t>
+          <t>j0rdan_j_04</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_maaadeline_</t>
+          <t>ktie_sophia</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>erik_the_schank</t>
+          <t>emma.kepley</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t_samps217</t>
+          <t>emily.lancaster_</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>halliemarie_7</t>
+          <t>madelineeee_c</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>luke_juracek6</t>
+          <t>itsbec2a</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>itszachmerritt</t>
+          <t>m_kominos0805</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>shawnkc14</t>
+          <t>delaney.kos</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>henry_hossfeld</t>
+          <t>taylorrr.messsaaa</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lvnexo</t>
+          <t>scottwyllie380</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>owen.gulick</t>
+          <t>jensenhawk</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>maddieburriesci</t>
+          <t>rosemaryngo_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>camrynjasnoski</t>
+          <t>kristinwoodruff_</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>louisejcaron</t>
+          <t>dannydeltorre</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>jillian_fishback</t>
+          <t>andrew_neal4</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1samwhich</t>
+          <t>kaylene.taylorr</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>alexandra_henry_</t>
+          <t>korin.gonzales</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>rja_v</t>
+          <t>grayson15anderson</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>belindasosnow</t>
+          <t>_susiegreen_</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>conradcoleman71</t>
+          <t>_katepeck</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>madi.grace.3</t>
+          <t>schmidt.03</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kh352</t>
+          <t>kinziew_9</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>angelina.santiago13</t>
+          <t>drasonhavea</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>schenkcameron</t>
+          <t>karlee_nutt</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>courtney.rowe6</t>
+          <t>dannychezem</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>taylor_stimac</t>
+          <t>scott_burrell</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>connor.w3lch</t>
+          <t>lilyw3is</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sierraa.holmes</t>
+          <t>ceeloo182</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sevdetatli_</t>
+          <t>nic.6691</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>maddie_powell__</t>
+          <t>robbieclisby</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>gracekrone</t>
+          <t>shawnkc14</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cbo752</t>
+          <t>tman_thompson0415</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>emmafaulkner_</t>
+          <t>cjstephens333</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mackenzie_keltner</t>
+          <t>cjbrown419</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>larra.j.lee</t>
+          <t>melanielee427</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mariaraglow_</t>
+          <t>deweyb22</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>deuter__</t>
+          <t>abhii_arugonda_</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>taylor_696skelton</t>
+          <t>zarrataylor</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>grace.diers</t>
+          <t>bthejayhawk</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>magabidelmasv</t>
+          <t>joestakerr</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aaronscaletty</t>
+          <t>ella.hurtig</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>tianna.harle</t>
+          <t>hunter_tindell</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ceeloo182</t>
+          <t>matthew_take1</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>monicaenloe</t>
+          <t>eduardomolinajr</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>midwestdude420</t>
+          <t>rowdiedog17</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ks_discgolf</t>
+          <t>danettedm</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>kenzieheline</t>
+          <t>carson.jenkins</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>abruptisland525_525</t>
+          <t>emilyfritschen</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>a.goetting99</t>
+          <t>sevdetatli_</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>schmidt.03</t>
+          <t>grace_abdallah_</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>osc_aguilera</t>
+          <t>kadindunham23</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>kittycurrent</t>
+          <t>jillian_fishback</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>_sam.robertson._</t>
+          <t>john.p.d</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>joestakerr</t>
+          <t>elliegeiger_</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>_rishabh_chaudhary___</t>
+          <t>jacob_wohlrabe</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>true.russell</t>
+          <t>t_samps217</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>jalexmendez._</t>
+          <t>gracekrone</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,2001 +1648,2001 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>amanda.ziebell</t>
+          <t>ethanoeck1</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sandovall001</t>
+          <t>_jesse.west_</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>adyn.mccaslin</t>
+          <t>carlynsmith</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>jaylen.weston</t>
+          <t>k.bdia</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>lilyw3is</t>
+          <t>stouslee</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>clutch.city.coale</t>
+          <t>ryantiernan__</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>maddie.le</t>
+          <t>alexandra_henry_</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>puki7877</t>
+          <t>goodsirfish</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ryan.viscomi</t>
+          <t>aly.beyer</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ewezzy3011</t>
+          <t>raeganmorelan</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>annaliese_nguyen</t>
+          <t>mikenevels</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>trentongrubb</t>
+          <t>ali_merrenski</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>edgar_flores_31</t>
+          <t>kamrynk1210</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>robbieclisby</t>
+          <t>atakanorhnn</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kyleleblancc</t>
+          <t>amelia.westphal</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>melanielee427</t>
+          <t>a.goetting99</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>graceemilyburns</t>
+          <t>aaronscaletty</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ch.loe21</t>
+          <t>harlie_bittel</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>hunter_3613</t>
+          <t>kylee.pyle</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>suttonlilyy</t>
+          <t>alyssacangelose</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>delaney.kos</t>
+          <t>presli.harts</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>emilyfritschen</t>
+          <t>tricia_wright31</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>norah.alasmar</t>
+          <t>sie_rose09</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>wal3xander</t>
+          <t>ali.dufield</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jackie_blossom</t>
+          <t>rumplestrong</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ashlynayerss</t>
+          <t>ben_heise</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>haeleigh2</t>
+          <t>_nataliejenk</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>elliegeiger_</t>
+          <t>addiereichert</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>__maddiecage</t>
+          <t>alibava224</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>kira.vxz</t>
+          <t>courtney.rowe6</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>smithh.emilyy</t>
+          <t>cole_henderson18</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>case.wyrick</t>
+          <t>leighdolann</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>weston_cockrum</t>
+          <t>addihocking</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jakari_hetep</t>
+          <t>_abdullah.5</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>kaydenrodgers32</t>
+          <t>laurenn.deleonn</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>brinkleebell</t>
+          <t>darian_j_04</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>emilyyderrico</t>
+          <t>lebedasteve</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>regerliam</t>
+          <t>harleyyallen</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>amelia.congdon</t>
+          <t>jaylinnnguyen</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>olivia.pirro</t>
+          <t>wes_kavy</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>triffinfarrar</t>
+          <t>chloe.kirschner</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>laurynnroberts</t>
+          <t>breck_luedke</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>erik.salcido</t>
+          <t>twilb22</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>tyadrennen</t>
+          <t>kulovebirds</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>hermelasolomonn</t>
+          <t>lilli.scopino</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>caroline__nagel</t>
+          <t>jared_harms04</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>macie.briggs42</t>
+          <t>norah.alasmar</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>vey.vos</t>
+          <t>asssshjk4</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vaniaarora</t>
+          <t>riemsrecap</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>mamaremp</t>
+          <t>megan.ricee</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_abdullah.5</t>
+          <t>la_weaver_20</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>b_coxie26</t>
+          <t>chanceebrock</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>megan.ricee</t>
+          <t>victoriacdallas</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>stouslee</t>
+          <t>stacyjesse</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>areli__jimenez</t>
+          <t>oliviarjohnston</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kyanamichele</t>
+          <t>harrisonalbano_tiktok</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kinsey_lamb</t>
+          <t>andrew_frick23</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>k.bdia</t>
+          <t>monicaenloe</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jack_renn</t>
+          <t>ashlynayerss</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>amyrosenberg</t>
+          <t>katharinemumert</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>sami.milk</t>
+          <t>bpgarlett</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>rlickteig0</t>
+          <t>tstruck86</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aritheonly004</t>
+          <t>aryanamoazami</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>lillian.kmyers</t>
+          <t>_kayla.powell_</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>andymcmindes</t>
+          <t>puki7877</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>m2340234</t>
+          <t>camden_schwarz</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>saraabed03</t>
+          <t>tori_elizabeth18</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ak.klaus</t>
+          <t>kyleleblancc</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>gracie_dobson</t>
+          <t>cole_guion</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>_susan_starr_</t>
+          <t>carsonmarsh1</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>taylorrr.messsaaa</t>
+          <t>kh352</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>johnhenry.clark</t>
+          <t>jennylstone</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>alexaloren__</t>
+          <t>taylupardusss</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>h.g.hermann</t>
+          <t>tianna.harle</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>angel_14vasquez</t>
+          <t>andre_kansas_city</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>annie.sween</t>
+          <t>elleterstriep</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>frijolero._.zz</t>
+          <t>sophiee_buchanan</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>blancamendeezt</t>
+          <t>sami_hami27</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>jared_harms04</t>
+          <t>alexaloren__</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>babybell333</t>
+          <t>tovekrussow</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>avery.radosta</t>
+          <t>ava.carson_1</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>gabe_pierce27</t>
+          <t>lilian_j_mcgrath</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>_ashleyhoffmann</t>
+          <t>_gracewilliams46</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>kaylene.taylorr</t>
+          <t>maddieburriesci</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>averyswanson_</t>
+          <t>gracesteinerrr</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>mikenevels</t>
+          <t>lee.wolf.581</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>serenacschwartz</t>
+          <t>evanmyers77</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>maeve_devlin</t>
+          <t>michelle_xalterrrrr</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sydney.mingucci</t>
+          <t>baudiss5</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>lilli.scopino</t>
+          <t>cbo752</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>carriemadden</t>
+          <t>widelande11</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>_lindsay_harris</t>
+          <t>emmalh0608</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>atakanorhnn</t>
+          <t>claudianelson15</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ethan.cronk</t>
+          <t>skye.kalisch</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>abbyvossen_</t>
+          <t>cchloeflowers</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>breckynbeatyy</t>
+          <t>haeleigh2</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>bthejayhawk</t>
+          <t>hannah.connelly_</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>blakempuckett</t>
+          <t>vandy.roomme</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>katiekarl11</t>
+          <t>avery.radosta</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>grayson15anderson</t>
+          <t>louisejcaron</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>paytoncbenoit</t>
+          <t>jakenator_2011</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>leila_shaheenn</t>
+          <t>conradcoleman71</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>_laurakmiller_</t>
+          <t>sophieweinrichh</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>bret.richardson</t>
+          <t>da_1_mike03</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>tori_elizabeth18</t>
+          <t>jakari_hetep</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>jack.flynnnn</t>
+          <t>llsofial</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>brookefarringtonn_</t>
+          <t>krashfit2022</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jacindacommerford</t>
+          <t>brookefarringtonn_</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>mackenziefeldman</t>
+          <t>lowe5784</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>austinmastin</t>
+          <t>gracie_dobson</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>piper.privat_</t>
+          <t>paydenstone</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ki.rupt</t>
+          <t>_emmamoraless_</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>bdunaway67</t>
+          <t>bret.richardson</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>peytonhmoore</t>
+          <t>gabe_pierce27</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>robertalvarado828</t>
+          <t>wolfhaley_hd</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>mad_maximum97</t>
+          <t>greta.hinds</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ellagawronski</t>
+          <t>duke_thenuke8</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>filmnerdtees</t>
+          <t>austinmastin</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sriya.annem</t>
+          <t>kristaromero_</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>alicemungamuri</t>
+          <t>olivia.pirro</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ethanc_c11</t>
+          <t>chloejochen04</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>sam_wendel_</t>
+          <t>drakeon45</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ezierott23</t>
+          <t>ajwells14</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>kinsey_rose13</t>
+          <t>brady_faulkner</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ronith_murthy</t>
+          <t>sophia.hollis</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>krashfit2022</t>
+          <t>tavo_cavin11</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>mmarie8021</t>
+          <t>stephenallen528</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>janaexkuhlman</t>
+          <t>sam_wendel_</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>kozmo.guerra</t>
+          <t>wal3xander</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>go.n.bac.2.ca</t>
+          <t>ashyratliff</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>emma.jane.schaffer</t>
+          <t>summerpattersonnn</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>matthew_angers2</t>
+          <t>jk_louis1845</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>jacksondillonblakley</t>
+          <t>chance.matlock</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>skye.kalisch</t>
+          <t>terribennettclendenen</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>imafish_trystone</t>
+          <t>tyadrennen</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jaylinnnguyen</t>
+          <t>christypatrick29</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>kenzie.schartz</t>
+          <t>zach_spittler2</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>dasiebert04</t>
+          <t>char.goldman</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>libbyswitzerr</t>
+          <t>kevo_oboyle</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>mckenzi5</t>
+          <t>regerliam</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>therealjmp</t>
+          <t>jeremy.jacobb</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>lebedasteve</t>
+          <t>joe.becher</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>gracedesbien</t>
+          <t>dasiebert04</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mcgwyre_</t>
+          <t>zo3.wiggin</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>addihocking</t>
+          <t>jasonopat</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>annaortizspencer</t>
+          <t>tylerr.peterson</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>dyllan.sourk</t>
+          <t>lucas_adcock_</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>reecekaneda</t>
+          <t>amilia.eve</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>kayleeknobel</t>
+          <t>guangyuruan</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>gracesteinerrr</t>
+          <t>mbdean71</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>zo3.wiggin</t>
+          <t>irishelvis</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>sami_hami27</t>
+          <t>itszachmerritt</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>alyssacangelose</t>
+          <t>anniebastien02</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>amelia.westphal</t>
+          <t>billkonen</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>darian_j_04</t>
+          <t>_rishabh_chaudhary___</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>mimi.mcleay</t>
+          <t>annie.sween</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>oliviarjohnston</t>
+          <t>ne.howard</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jacksonrmcm</t>
+          <t>connor.w3lch</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ellieabele</t>
+          <t>draney.dw</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>josh.cecil</t>
+          <t>taylor.rantz</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>rylee__jayde</t>
+          <t>kcsports69</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>wcjones2</t>
+          <t>taylor_stimac</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ella_kottenstette</t>
+          <t>gracebowlinn</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>jacie.myers</t>
+          <t>ashendacott</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>piper.benjamin</t>
+          <t>stella_natalie231</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>la_weaver_20</t>
+          <t>angel_14vasquez</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>babsmadeit</t>
+          <t>rachael.hall_</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>lucas_adcock_</t>
+          <t>katewelch21</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sponitz_</t>
+          <t>bigdaddyal69420</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>laurynlfrerichs</t>
+          <t>olivia_persing</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>breck_luedke</t>
+          <t>kinsey_lamb</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>grace_abdallah_</t>
+          <t>delaney.meister</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>bigpammy</t>
+          <t>erikfoulk</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>casherikson</t>
+          <t>carolineallen.2.2</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jasonopat</t>
+          <t>ssndraw</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>antwone_rayford</t>
+          <t>jsmith867530912</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>mary.m.2023</t>
+          <t>rsrog13</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>bevquiinn</t>
+          <t>maddie.holopirek</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>_makaylagreene</t>
+          <t>jaylen.weston</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>troehl10.0</t>
+          <t>bigpammy</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ukansas2028</t>
+          <t>heideman</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>amyrtaylorrr</t>
+          <t>wyatt__harris</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>oliviadondzila</t>
+          <t>rylee__jayde</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>stephenallen528</t>
+          <t>yazminvela._</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>_guskobs_</t>
+          <t>yrdnome_</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>bellaaavictoriaaa</t>
+          <t>jackson.gautreau</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>victoriacdallas</t>
+          <t>bigloukc</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ezystraub</t>
+          <t>another_username_gone</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>crpdog</t>
+          <t>eligah_thomas</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>freshoil_loosegravel</t>
+          <t>caseysandersonn</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>kylee.pyle</t>
+          <t>camrynbliss</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>m_kominos0805</t>
+          <t>alrichard12</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>haylee.litzinger</t>
+          <t>rita.yanex</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>scottwyllie380</t>
+          <t>dyllan.sourk</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>drakeon45</t>
+          <t>ch.loe21</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>camryn.strope</t>
+          <t>alisejacqueline</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>tyler.greer03</t>
+          <t>oliviaa.mccoy</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sophiee_buchanan</t>
+          <t>robertalvarado828</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>andrew.durbin04</t>
+          <t>adam.darst</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>lowe5784</t>
+          <t>jack.perr</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -3652,203 +3652,203 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>eli.bush22</t>
+          <t>carriemadden</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>duke_thenuke8</t>
+          <t>carlysellhorn</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>_susiegreen_</t>
+          <t>lilyguinan_</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ashleymuir13</t>
+          <t>_tylermassey_</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>masonmeinershagen</t>
+          <t>maryann.reddig</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>laceyanne29</t>
+          <t>_kaylee42</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>korin.gonzales</t>
+          <t>__maddiecage</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>tavo_cavin11</t>
+          <t>_ashleyhoffmann</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>char.goldman</t>
+          <t>ki.rupt</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>garrett4ivey</t>
+          <t>_annapittman_</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ne.howard</t>
+          <t>_lexi.lonergan</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>zachgurion</t>
+          <t>averysilsby44</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>lee.wolf.581</t>
+          <t>newman2532</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>evebertoncino</t>
+          <t>adelineraebel</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sophia_herrera04</t>
+          <t>cutyr.mansker</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>madelinedeasy</t>
+          <t>abbyassaad</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>alrichard12</t>
+          <t>ashish.singh242</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ssndraw</t>
+          <t>evebertoncino</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>kaceysugrue</t>
+          <t>kayleeknobel</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>terynkf</t>
+          <t>leslie.anette</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>brendanlowden</t>
+          <t>c.arlyelizabeth</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>hannah.connelly_</t>
+          <t>owen.gulick</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>dseck72</t>
+          <t>t0ee.knee</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>tmeltonmeeks</t>
+          <t>_parkercochran_</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ava.s012</t>
+          <t>maddie_powell__</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>iz_jae</t>
+          <t>clutch.city.coale</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>david.giem</t>
+          <t>triffinfarrar</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>naba_zaheer</t>
+          <t>averyparra</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>samanthamckayyyy</t>
+          <t>emily_erker</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>kulovebirds</t>
+          <t>taylor_696skelton</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>michelleballon8</t>
+          <t>mackenzie_keltner</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>rub6er</t>
+          <t>dseck72</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>mel.h10</t>
+          <t>kaydenrodgers32</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>andrewpokorny_</t>
+          <t>piper.benjamin</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>tracyhogan</t>
+          <t>biankamalinovic</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>anniebastien02</t>
+          <t>hannaheallen</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>itsbec2a</t>
+          <t>zayne_ginger</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>kaden.huber</t>
+          <t>lillian.kmyers</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>bpgarlett</t>
+          <t>vey.vos</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>harrisonalbano_tiktok</t>
+          <t>sami.milk</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ashtyn.schaeffer</t>
+          <t>cody29499</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>mackenzieleisten</t>
+          <t>freshoil_loosegravel</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>erin.tatee</t>
+          <t>henry_hossfeld</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>kylie.hawes</t>
+          <t>cali_foltz</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>elizabethsersen</t>
+          <t>samanthamckayyyy</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>_tylermassey_</t>
+          <t>bellaaavictoriaaa</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>taylorlane997</t>
+          <t>lillie.sullivan</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>mckenna_mann05</t>
+          <t>cmerrick13</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>austint.munoz</t>
+          <t>midwestdude420</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>isaac_tyler28</t>
+          <t>emmachristyy</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ashleynmagdalan</t>
+          <t>sammurray374</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>adam.darst</t>
+          <t>magabidelmasv</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>joe.becher</t>
+          <t>mackenzieleisten</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>presli.harts</t>
+          <t>reek.dillard</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>braden_coleman03</t>
+          <t>grace.milroy</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>elizabethhyeo</t>
+          <t>declclan</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>bdoolwalsh</t>
+          <t>osc_aguilera</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>katharinemumert</t>
+          <t>sriya.annem</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>courtneyofie</t>
+          <t>brinkleebell</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ridgebenker</t>
+          <t>mcgwyre_</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>margogojane</t>
+          <t>parker_schultz24</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>madeline.furman</t>
+          <t>bdunaway67</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>culliemihalchik</t>
+          <t>haydenvansickle</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kamrynk1210</t>
+          <t>turley.hugh</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>jacob_wohlrabe</t>
+          <t>haylee.litzinger</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>isaac.lacroix74</t>
+          <t>go.n.bac.2.ca</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>taylupardusss</t>
+          <t>taylorwollenberg</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ali.dufield</t>
+          <t>jhantla</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>kristaromero_</t>
+          <t>kyanamichele</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>maxholdhusen</t>
+          <t>averyswanson_</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>cmerrick13</t>
+          <t>madeline.furman</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>abby_allen9</t>
+          <t>kozmo.guerra</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>turley.hugh</t>
+          <t>tyrabogle</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>tylernishi</t>
+          <t>annmaria_paul</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>aaronnlewisss</t>
+          <t>jack.flynnnn</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>rileyhowess</t>
+          <t>dara.gregory</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>chase_warren21</t>
+          <t>shelbybran_</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>the_big_b_money</t>
+          <t>tanichols70</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>schrum_25</t>
+          <t>tyler.greer03</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>alexisshidler</t>
+          <t>bigpapalyon</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>tsteele85</t>
+          <t>leilaegreen</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>terribennettclendenen</t>
+          <t>maurice.willi18</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>zoethrom</t>
+          <t>tmeltonmeeks</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>tjswiet13</t>
+          <t>finleybik</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>adelineraebel</t>
+          <t>wrhudolph_7</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>lexieheltmach</t>
+          <t>samstallardreal</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>hannaheallen</t>
+          <t>johnhenry.clark</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>bradylambert23</t>
+          <t>makalahwaldrop</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,460 +4538,10 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>folsom2196</t>
+          <t>dmitchell620</t>
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>harleyyallen</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>kristinwoodruff_</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>dee.erb</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>jillianjens</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>sophia.hollis</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>hawkaholix</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>tovekrussow</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>cole_guion</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>nguyen_bee</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>gabbie.schultz</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>finleybik</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>bigloukc</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>grace_ely123</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>real_mrs_c</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>alexandrahewitt_</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>alyssasobelman</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>grant_schere</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>alisejacqueline</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>maddie.holopirek</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>ladydi00001</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>another_username_gone</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>rsrog13</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>rowdiedog17</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>ellacrumbaker</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>mitchhughes04</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>reek.dillard</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>wolfhaley_hd</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>joan.hollyw00d</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>cbrion_41</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>nicolleguillen4</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>sara_seibold</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>eli.dougan</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>dominicklein__</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>k.svanacker</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>jamiemgabriel</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>ali_merrenski</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>ashley.stantonn</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>rileemorrow</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>nataliekaylund</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>parker__clifton</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>whitmanwords</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>camrynbliss</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>livielebeau</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>tessfay_</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>erikfoulk</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/kansas.roomme.xlsx
+++ b/Marketing/kansas.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sydney.mingucci</t>
+          <t>sudar_ni78</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hayd_cook1</t>
+          <t>gall.ardo0809</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>kinsey_rose13</t>
+          <t>majeedabegum.4</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>margogojane</t>
+          <t>ajith_saki</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aaronnlewisss</t>
+          <t>alejandranino482</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mackenziefeldman</t>
+          <t>franciscoferreyra82</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>karlitaa._.t</t>
+          <t>lilavatipanchal2110</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>garrett4ivey</t>
+          <t>manganet79</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sandovall001</t>
+          <t>onside.pt</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>grace.kathryn13</t>
+          <t>zoya.kha6345</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>amyrosenberg</t>
+          <t>pavan8297925524</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>blkcrwninvt</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>macy.rathe</t>
+          <t>s_a_n_k_e_t_____123</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>madelinedeasy</t>
+          <t>sukanta664o</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>selma.khokher</t>
+          <t>savannah._davis</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>caden.petzold</t>
+          <t>biancayanet5</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ella_kottenstette</t>
+          <t>mukashkumar7626</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rileydempseyy</t>
+          <t>in_der7615</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>joseph.mitchell.3</t>
+          <t>aafiyaparween.1</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>blancamendeezt</t>
+          <t>mscorny</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ezierott23</t>
+          <t>kumarii665</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1samwhich</t>
+          <t>gi_ll3990</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cramar26</t>
+          <t>57273200k9</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>liamwier</t>
+          <t>gonzalofigueroa2819</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>emma.jane.schaffer</t>
+          <t>ivanbalodha</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>luke_juracek6</t>
+          <t>sydneypeery</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dee.erb</t>
+          <t>eythomas121</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>asherbeltrand.23</t>
+          <t>chaudharysiddhi61</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ellaaabentleyyy</t>
+          <t>anna.belivy</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>braden_coleman03</t>
+          <t>ma.hmad5050</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ellacrumbaker</t>
+          <t>cece_dick</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>true.russell</t>
+          <t>pri.ya1238250</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>isaac.lacroix74</t>
+          <t>damn_its_ujju</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mrdills19</t>
+          <t>rsrsupadhayay_</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>laurynnroberts</t>
+          <t>hafs.at169</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ks_discgolf</t>
+          <t>rashedsk2943</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>david.giem</t>
+          <t>molly.davis1</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>emilyy.bliss</t>
+          <t>dinesh_indori</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>charlotteestrohl</t>
+          <t>shayan_one_st</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>coddi.womplee</t>
+          <t>sunildas3927</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>grace.diers</t>
+          <t>siddharthgautam3132</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nicolleguillen4</t>
+          <t>andreakrat</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>shelaherickson</t>
+          <t>mallori_courtney</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lvnexo</t>
+          <t>ramoncoronel55</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bradylambert23</t>
+          <t>deepkpatel16</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kristen.millspaugh</t>
+          <t>ka.lvin224</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ava.s012</t>
+          <t>0dnum</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ashleymuir13</t>
+          <t>patytamayo4</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ava.gilmore</t>
+          <t>rianmr2315</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tsteele85</t>
+          <t>paguyuban_semberani</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>erinsmith.11</t>
+          <t>selimdundar32</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tylernishi</t>
+          <t>ahsan11186</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>char.gus</t>
+          <t>emisca8</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>egapsnivek</t>
+          <t>sabi.na6461</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>brmcconnell_</t>
+          <t>kena_forster</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>tracyhogan</t>
+          <t>gulnaj_rani7040</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>namastetayy</t>
+          <t>zezeee714</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>culliemihalchik</t>
+          <t>pittu_kumar9784849442</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sponitz_</t>
+          <t>nikhil_sharma_7905</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ashley.stantonn</t>
+          <t>maddy._.shirley</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>deuter__</t>
+          <t>as.girls.super.poderosass</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ellieabele</t>
+          <t>evertonrodrigues1220</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>j0rdan_j_04</t>
+          <t>hannin_almosawy</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ktie_sophia</t>
+          <t>sanamakandar143</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>emma.kepley</t>
+          <t>weston_cockrum</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>emily.lancaster_</t>
+          <t>darim.girl5</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>madelineeee_c</t>
+          <t>__alone__boy__1920</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>itsbec2a</t>
+          <t>natek5</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>m_kominos0805</t>
+          <t>carliexclary</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>delaney.kos</t>
+          <t>pey.manson</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>taylorrr.messsaaa</t>
+          <t>sagarsirka014</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>scottwyllie380</t>
+          <t>luangam_ofc1</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jensenhawk</t>
+          <t>sh.ella6215</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rosemaryngo_</t>
+          <t>mason_behrens12</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>kristinwoodruff_</t>
+          <t>jaylie.hohman</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dannydeltorre</t>
+          <t>broken561angel</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>andrew_neal4</t>
+          <t>madharam715</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kaylene.taylorr</t>
+          <t>ryanfichtner</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>korin.gonzales</t>
+          <t>nisar_463</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>grayson15anderson</t>
+          <t>elise.a.ericksoncooley</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>_susiegreen_</t>
+          <t>noalzathletics</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>_katepeck</t>
+          <t>mina12920105</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>schmidt.03</t>
+          <t>ekramul6432</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kinziew_9</t>
+          <t>gilsonkasato</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>drasonhavea</t>
+          <t>palhare_pavan</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>karlee_nutt</t>
+          <t>keerthi_lover_black</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>dannychezem</t>
+          <t>sa.yra167</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>scott_burrell</t>
+          <t>carlcrittenden</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>lilyw3is</t>
+          <t>qppqpqqqpqp</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ceeloo182</t>
+          <t>broken____heart_____07</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>nic.6691</t>
+          <t>kate.griffin13</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>robbieclisby</t>
+          <t>berylpienaar5</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>shawnkc14</t>
+          <t>harper.mc</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>tman_thompson0415</t>
+          <t>leah_britt</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cjstephens333</t>
+          <t>norahhess</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>cjbrown419</t>
+          <t>cassidyy.jones</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>melanielee427</t>
+          <t>dayerling278</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>deweyb22</t>
+          <t>sahilsahani4942023</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>abhii_arugonda_</t>
+          <t>galaginakattij</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zarrataylor</t>
+          <t>so_ul._4</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bthejayhawk</t>
+          <t>andriamay.saribay</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>joestakerr</t>
+          <t>prajwalj559</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ella.hurtig</t>
+          <t>salmilakra4</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>hunter_tindell</t>
+          <t>shhhsnn</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>matthew_take1</t>
+          <t>keshavpunjabi44</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>eduardomolinajr</t>
+          <t>adriatipp</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>rowdiedog17</t>
+          <t>marmos.art</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>danettedm</t>
+          <t>fafo3777</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>carson.jenkins</t>
+          <t>sudhirk318</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>emilyfritschen</t>
+          <t>wachsd26</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sevdetatli_</t>
+          <t>rahul_amin6092</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>grace_abdallah_</t>
+          <t>solt.ani2465</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>kadindunham23</t>
+          <t>annalena1232023</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>jillian_fishback</t>
+          <t>collienoles</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>john.p.d</t>
+          <t>rohi_th7945</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>elliegeiger_</t>
+          <t>maeve_galvan</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jacob_wohlrabe</t>
+          <t>brendon_off1</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>leroystavern</t>
+          <t>josieherrold</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t_samps217</t>
+          <t>aasha__990</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>gracekrone</t>
+          <t>rdx___sundaram____x444</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,107 +1648,107 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ethanoeck1</t>
+          <t>dasnar0</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>_jesse.west_</t>
+          <t>rehma.an143</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>carlynsmith</t>
+          <t>acbebeh</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>k.bdia</t>
+          <t>deepakkumar12345347</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>stouslee</t>
+          <t>sohanmunda77</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ryantiernan__</t>
+          <t>abhishekupadhyay8180</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>alexandra_henry_</t>
+          <t>vijayguvhade</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>goodsirfish</t>
+          <t>marlonpadilla627</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>aly.beyer</t>
+          <t>lami.sibrahim27</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>raeganmorelan</t>
+          <t>sahil__sarkar__786</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>mikenevels</t>
+          <t>pierre.missou</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ali_merrenski</t>
+          <t>d87_654</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>kamrynk1210</t>
+          <t>yurielcisnado</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>atakanorhnn</t>
+          <t>sousa7matheus</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>amelia.westphal</t>
+          <t>rahul_rajpoot276208</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>a.goetting99</t>
+          <t>efrengonzales551</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>aaronscaletty</t>
+          <t>lopesadilsonferreira</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>harlie_bittel</t>
+          <t>ender_sicay</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kylee.pyle</t>
+          <t>kri_shjaat683</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>alyssacangelose</t>
+          <t>ll_raju_khadia_ll</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>presli.harts</t>
+          <t>sachin9919verma6</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>tricia_wright31</t>
+          <t>ridaetkarim</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sie_rose09</t>
+          <t>racheltobi</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ali.dufield</t>
+          <t>sandihanif10</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rumplestrong</t>
+          <t>rahul1063tiwari</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ben_heise</t>
+          <t>kfesi99</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>_nataliejenk</t>
+          <t>omraj5722</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>addiereichert</t>
+          <t>racky_choudhary_544</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>alibava224</t>
+          <t>2ndchanceoutreachministries</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>courtney.rowe6</t>
+          <t>_englishm</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cole_henderson18</t>
+          <t>sanika_pankaj_143</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>leighdolann</t>
+          <t>alireza.karimi82729</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>addihocking</t>
+          <t>prakash_artzone</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>_abdullah.5</t>
+          <t>galbale19</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>laurenn.deleonn</t>
+          <t>amit.129584</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>darian_j_04</t>
+          <t>tommy.hogan3</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lebedasteve</t>
+          <t>rachnabharti123456</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>harleyyallen</t>
+          <t>afiqadham9</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jaylinnnguyen</t>
+          <t>arhaankhan1126</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>wes_kavy</t>
+          <t>ylan12345678</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>chloe.kirschner</t>
+          <t>goose_bumps991</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>breck_luedke</t>
+          <t>ajay233368</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>twilb22</t>
+          <t>dnddbdbdbbnnansn</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>kulovebirds</t>
+          <t>mohitjaani4</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lilli.scopino</t>
+          <t>tmrandazzo24</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jared_harms04</t>
+          <t>khali.del01</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>norah.alasmar</t>
+          <t>jitendra_patel_7200</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>asssshjk4</t>
+          <t>mr_naresh_3791</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>riemsrecap</t>
+          <t>sti_____yadav</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>megan.ricee</t>
+          <t>_amygraceconkle</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>la_weaver_20</t>
+          <t>abhishek3891thakur</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>chanceebrock</t>
+          <t>brooklynkling05</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>victoriacdallas</t>
+          <t>maja_pa40</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>stacyjesse</t>
+          <t>yun11_2211</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>oliviarjohnston</t>
+          <t>natwaterss</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>harrisonalbano_tiktok</t>
+          <t>rohan444447777</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>andrew_frick23</t>
+          <t>cris32reis</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>monicaenloe</t>
+          <t>__surbhi____90</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ashlynayerss</t>
+          <t>muh_s_i_n__x__7</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>katharinemumert</t>
+          <t>korenilu</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>bpgarlett</t>
+          <t>jangli8142</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>tstruck86</t>
+          <t>thales_thiago26</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aryanamoazami</t>
+          <t>dhdjdkffk677</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>_kayla.powell_</t>
+          <t>bogomargaritas</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>puki7877</t>
+          <t>muksordarmi</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>camden_schwarz</t>
+          <t>_jazzypalmer</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>tori_elizabeth18</t>
+          <t>carol22gomess</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>kyleleblancc</t>
+          <t>mansivishwkarma8</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>cole_guion</t>
+          <t>gabrielfreittas33</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>carsonmarsh1</t>
+          <t>arathyy9090</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>kh352</t>
+          <t>humansofsomewhere_</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>jennylstone</t>
+          <t>anita4309259</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>taylupardusss</t>
+          <t>sosi3480</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>tianna.harle</t>
+          <t>pjporter</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>andre_kansas_city</t>
+          <t>limat_tj_kd_29</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>elleterstriep</t>
+          <t>insta_user_2345678920</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sophiee_buchanan</t>
+          <t>mr.jaseem__</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>sami_hami27</t>
+          <t>narankadva</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alexaloren__</t>
+          <t>__gabbbiii</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>tovekrussow</t>
+          <t>sarascott1029384756</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ava.carson_1</t>
+          <t>ann.m.boles</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>lilian_j_mcgrath</t>
+          <t>sam_khaleh</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>_gracewilliams46</t>
+          <t>aspakpatel589</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>maddieburriesci</t>
+          <t>coria.chalo</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>gracesteinerrr</t>
+          <t>jonatt40</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>lee.wolf.581</t>
+          <t>itz_sangeeta212</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>evanmyers77</t>
+          <t>marina.johnsonn</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>michelle_xalterrrrr</t>
+          <t>almi.ra8181</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>baudiss5</t>
+          <t>reese_harle</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cbo752</t>
+          <t>kunal_yadav8235</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>widelande11</t>
+          <t>dawoodmohammadi0011</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>emmalh0608</t>
+          <t>e_lehn000_</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>claudianelson15</t>
+          <t>sydney_wajda</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>skye.kalisch</t>
+          <t>sanjuk8611</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>cchloeflowers</t>
+          <t>91zizibecks99</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>haeleigh2</t>
+          <t>biancanakarumi</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>hannah.connelly_</t>
+          <t>_n_o_v_r_u_z_o_v_6_9_2</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>vandy.roomme</t>
+          <t>sherwood_melissa</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>avery.radosta</t>
+          <t>nadia1234603</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>louisejcaron</t>
+          <t>chrissymullins</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>jakenator_2011</t>
+          <t>kroy97279</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>conradcoleman71</t>
+          <t>anita_koth_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sophieweinrichh</t>
+          <t>0976b1</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>da_1_mike03</t>
+          <t>kerryl_ann</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jakari_hetep</t>
+          <t>amarie.dvo</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>llsofial</t>
+          <t>qurrohman205</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>krashfit2022</t>
+          <t>brunariedlinger</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>brookefarringtonn_</t>
+          <t>soheil_424</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>lowe5784</t>
+          <t>limisendunana</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>gracie_dobson</t>
+          <t>studio.soul_</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>paydenstone</t>
+          <t>givaldogiva5</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>_emmamoraless_</t>
+          <t>momi2domiandbrooks</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>bret.richardson</t>
+          <t>bilol.bek5998</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>gabe_pierce27</t>
+          <t>chaayaminhas</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>wolfhaley_hd</t>
+          <t>rani123454310</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>greta.hinds</t>
+          <t>wardeh0723</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>duke_thenuke8</t>
+          <t>665566preeti</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>austinmastin</t>
+          <t>kordog06</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>kristaromero_</t>
+          <t>wassimwassim1322</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>olivia.pirro</t>
+          <t>mt_manish_xx_94</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>chloejochen04</t>
+          <t>cristiano07802</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>drakeon45</t>
+          <t>avery.lheureux</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ajwells14</t>
+          <t>firefighter_f.lima1163</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>brady_faulkner</t>
+          <t>abakarmht129</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sophia.hollis</t>
+          <t>jomdeen6</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>tavo_cavin11</t>
+          <t>kahkeshan3132023</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>stephenallen528</t>
+          <t>rahelm06</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sam_wendel_</t>
+          <t>romeoputraalamsyah</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>wal3xander</t>
+          <t>laxmana9408</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ashyratliff</t>
+          <t>tr3v0o</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>summerpattersonnn</t>
+          <t>alyxzandra009</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>jk_louis1845</t>
+          <t>kikoyrifki</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>chance.matlock</t>
+          <t>veerbahadur8462</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>terribennettclendenen</t>
+          <t>aareyngiri</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tyadrennen</t>
+          <t>nauzan_al_azhar</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>christypatrick29</t>
+          <t>marcveloz_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>zach_spittler2</t>
+          <t>rkzxrsj</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>char.goldman</t>
+          <t>sebastiaodos85</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>kevo_oboyle</t>
+          <t>dev._gadariya_</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>regerliam</t>
+          <t>mr.bantu146</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>jeremy.jacobb</t>
+          <t>yoikipauji</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>joe.becher</t>
+          <t>bynymohammad</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>dasiebert04</t>
+          <t>maya.maya2315</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>zo3.wiggin</t>
+          <t>angkringansahabat05</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jasonopat</t>
+          <t>kuria.dc</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>tylerr.peterson</t>
+          <t>lexee_marie_</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>lucas_adcock_</t>
+          <t>dezuitaferreiradasilva</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>amilia.eve</t>
+          <t>mehrdad_cheshme</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>guangyuruan</t>
+          <t>pravakar1191</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>mbdean71</t>
+          <t>sachinkumarmandal7140</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>irishelvis</t>
+          <t>eduardo.096991356402</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>itszachmerritt</t>
+          <t>arun_rajput_5911___</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>anniebastien02</t>
+          <t>donovan_brook</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>billkonen</t>
+          <t>viviih_lindaa</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>_rishabh_chaudhary___</t>
+          <t>patrick_smikle</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>annie.sween</t>
+          <t>alejandro_xd7654</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ne.howard</t>
+          <t>ashish_toshniwal123</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>connor.w3lch</t>
+          <t>mthokozisi7947</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>draney.dw</t>
+          <t>gobogo5</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>taylor.rantz</t>
+          <t>esterdaudi50</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>kcsports69</t>
+          <t>conrad_53</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>taylor_stimac</t>
+          <t>sa_fiya469</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>gracebowlinn</t>
+          <t>kate_buren</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ashendacott</t>
+          <t>nova.1172</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>stella_natalie231</t>
+          <t>angel.priya8825</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>angel_14vasquez</t>
+          <t>salas.alyssa</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>rachael.hall_</t>
+          <t>kalohineman</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>katewelch21</t>
+          <t>ishakumar79820</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>bigdaddyal69420</t>
+          <t>vivanshoda</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>olivia_persing</t>
+          <t>gloria_estela_mejia2012</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>kinsey_lamb</t>
+          <t>miroslava_vasileva89</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>delaney.meister</t>
+          <t>prdhan1543</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>erikfoulk</t>
+          <t>bady6953</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>carolineallen.2.2</t>
+          <t>bseago24</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ssndraw</t>
+          <t>bumesh3006</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jsmith867530912</t>
+          <t>manare_nanzo</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>rsrog13</t>
+          <t>emily.brenman</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>maddie.holopirek</t>
+          <t>adoriazahab</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jaylen.weston</t>
+          <t>cw1badboyz123</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>bigpammy</t>
+          <t>nosabesquehacer_viaja</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>heideman</t>
+          <t>pari_maheshwari_16_143</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>wyatt__harris</t>
+          <t>mohsinali.5170</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>rylee__jayde</t>
+          <t>jiyad4275</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>yazminvela._</t>
+          <t>pedrinaticosz_</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>yrdnome_</t>
+          <t>gemstone.rubes</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jackson.gautreau</t>
+          <t>tymeyer_</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>bigloukc</t>
+          <t>ma_dhavi2338</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>another_username_gone</t>
+          <t>noum.an46</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>eligah_thomas</t>
+          <t>donganglover</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>caseysandersonn</t>
+          <t>aloa07332023</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>camrynbliss</t>
+          <t>naveen_03_volleybal</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>alrichard12</t>
+          <t>whoisfe</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>rita.yanex</t>
+          <t>nirosha3290</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>dyllan.sourk</t>
+          <t>asimriaz9554</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ch.loe21</t>
+          <t>ritik5190raj</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>alisejacqueline</t>
+          <t>jhony_32araya</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>oliviaa.mccoy</t>
+          <t>tinukumar9774</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>robertalvarado828</t>
+          <t>muller_chris101r</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>adam.darst</t>
+          <t>dara5avila</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jack.perr</t>
+          <t>judekonrade</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>cecily.jacobsen</t>
+          <t>madilynnscott.15</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>carriemadden</t>
+          <t>mia.veatch</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>carlysellhorn</t>
+          <t>irene.toemen</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>lilyguinan_</t>
+          <t>tx_girl_living_in_mo</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>_tylermassey_</t>
+          <t>aafgh656</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>maryann.reddig</t>
+          <t>143sibubhoi</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>_kaylee42</t>
+          <t>sunkumari3210</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>__maddiecage</t>
+          <t>rashidbabu552</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>_ashleyhoffmann</t>
+          <t>tanuj_a8545</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ki.rupt</t>
+          <t>kingcares</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>_annapittman_</t>
+          <t>miranda.lerma</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>_lexi.lonergan</t>
+          <t>fam_qureshi</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>averysilsby44</t>
+          <t>marceloaraujo8517</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>newman2532</t>
+          <t>erick.g.exe</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>adelineraebel</t>
+          <t>mahe.ndrakumar96285072</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>cutyr.mansker</t>
+          <t>daval2977_</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>abbyassaad</t>
+          <t>bethdoh50</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ashish.singh242</t>
+          <t>_ripelix_</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>evebertoncino</t>
+          <t>882_8502155</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>kayleeknobel</t>
+          <t>marinasa.fotografia</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>leslie.anette</t>
+          <t>jessgoldstein13</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>c.arlyelizabeth</t>
+          <t>scottscoopmire</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>owen.gulick</t>
+          <t>ayyye.its.treyyy</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t0ee.knee</t>
+          <t>kunalrajput8639</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>_parkercochran_</t>
+          <t>jagdisha9370</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>maddie_powell__</t>
+          <t>nicole_.weyer</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>clutch.city.coale</t>
+          <t>wale6359</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>triffinfarrar</t>
+          <t>rona_ldo6080</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>averyparra</t>
+          <t>ary_arenjith</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>emily_erker</t>
+          <t>samantha.rhyan</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>taylor_696skelton</t>
+          <t>gabri_elfelipeguedes</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>mackenzie_keltner</t>
+          <t>reshmareshmadon</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>dseck72</t>
+          <t>unic.orn713</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>kaydenrodgers32</t>
+          <t>my_bestie_preeti__</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>piper.benjamin</t>
+          <t>lohan.partik</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>biankamalinovic</t>
+          <t>rajdeepdas9520</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>hannaheallen</t>
+          <t>vanessa_harlow</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>zayne_ginger</t>
+          <t>ibbur_th</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>lillian.kmyers</t>
+          <t>eliana.soleil</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>vey.vos</t>
+          <t>_arilozada</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>sami.milk</t>
+          <t>ankushgupta8220</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>cody29499</t>
+          <t>iw_an9366</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>freshoil_loosegravel</t>
+          <t>emilystenzell</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>henry_hossfeld</t>
+          <t>wolfie_bings</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>cali_foltz</t>
+          <t>kiral0755</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>samanthamckayyyy</t>
+          <t>deepanshu__panihar</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>bellaaavictoriaaa</t>
+          <t>jay.stice8</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>lillie.sullivan</t>
+          <t>nose11548</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>cmerrick13</t>
+          <t>freckles.91</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>midwestdude420</t>
+          <t>laurie_cooper_0fficial</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>emmachristyy</t>
+          <t>brahim.2242</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>sammurray374</t>
+          <t>wiskeria.caribe</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>magabidelmasv</t>
+          <t>babu_pendra</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>mackenzieleisten</t>
+          <t>rohan_shinde00000</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>reek.dillard</t>
+          <t>nibh.a8843</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>grace.milroy</t>
+          <t>earth_angel_87</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>declclan</t>
+          <t>joseph.lyons1</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>osc_aguilera</t>
+          <t>khnrkhy242</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>sriya.annem</t>
+          <t>snatan_lover01</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>brinkleebell</t>
+          <t>sophia.sosinski</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>mcgwyre_</t>
+          <t>calyssamarie05</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>parker_schultz24</t>
+          <t>bruno_fellipy_cg2912</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>bdunaway67</t>
+          <t>mahisarma250</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>haydenvansickle</t>
+          <t>makenadettwiler</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>turley.hugh</t>
+          <t>gurtaj.009</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>haylee.litzinger</t>
+          <t>hellowomen__</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>go.n.bac.2.ca</t>
+          <t>jelitayyyy775</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>taylorwollenberg</t>
+          <t>mama118322</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jhantla</t>
+          <t>harkaur2671</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>kyanamichele</t>
+          <t>dagangsengkang</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>averyswanson_</t>
+          <t>megan_derby</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>madeline.furman</t>
+          <t>13212jaguar</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>kozmo.guerra</t>
+          <t>robi.ul7210</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>tyrabogle</t>
+          <t>mostafakabo051</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>annmaria_paul</t>
+          <t>slutbabies13</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>jack.flynnnn</t>
+          <t>lorenputerman</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>dara.gregory</t>
+          <t>_gabriel_silva_2003</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>shelbybran_</t>
+          <t>ty_63</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>tanichols70</t>
+          <t>jagdish_rajput_insta_</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>tyler.greer03</t>
+          <t>anu12341011</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>bigpapalyon</t>
+          <t>balachandermarvi</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>leilaegreen</t>
+          <t>kalathiya_tirth_7781</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>maurice.willi18</t>
+          <t>econ.acer</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>tmeltonmeeks</t>
+          <t>ultravioletwhitelight</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>finleybik</t>
+          <t>aakashraj1336</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>wrhudolph_7</t>
+          <t>imransha622</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>samstallardreal</t>
+          <t>vitor_vitinho22</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>johnhenry.clark</t>
+          <t>sowmya49620</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>makalahwaldrop</t>
+          <t>qays_archa0625</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,10 +4538,850 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>dmitchell620</t>
+          <t>hannahhgalvann</t>
         </is>
       </c>
       <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>priyankanautiyal57</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>kean_ureeves047</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>alexsandro2920</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>akshay_hukmate</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>madighann</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>pius_omullo</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>king_of_kumar90</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>sourav1239569</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>apruss17</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>king__boy__sanjay_1000k</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>assamstrider</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>kb.1696</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ycp249</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>queenkat66</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>bhojpuri_love_9090</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>nira_mohi</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>emmypatterson_</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ellaa__marie</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>mariyam__uuuu</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>pitonabima</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>tar_5128</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>anan.ta5896</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>vanessa.reza18</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>superstar_dewasi_007</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>jess.miller18</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>28_nighty_kinjal</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>kshalfmarathon</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>majuu_donaro27</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>veera_pulesr_220</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>kissu5649</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>bnch.uchee</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>nitugupta5247</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>tonaallisonn</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>rakeshkumarrakesh5801</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>tiw__ari_557</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>pujakumari02589966</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ro.him4162</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>mattimmergluck</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>harma_ndeep512</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>aarish_gaming_315</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>libbyaboles</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>savitalodhi377</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>alliemd_17</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ellysangella_silvah95</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>so__smart__boy_</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>diva_zeva</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>kuldeepkaur_2330</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>flopi_agg</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>mhe_mat1</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>odia.omegleboy</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>vahut.shital</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>siyanukhan098</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>jacobmorton58</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>69.01401915</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>sohibkhan7485</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>farrahflucas</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>amoti_jatav1234</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>priyar8474</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>__pavan__offical_</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>sheeshkid0011</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>krjohnson_32</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>larissa123santos68</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>jessie.meadd</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>venzis234</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>vivek171raj</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>kjs8.451</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>its_govind_koriya</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>anshs_sahu23</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>lil_bank17k</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>arunjogi5328</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>hari128885</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>theuz0000</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>abdulrhma3103</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>crabb.stagram</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>sk9068yadav</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>sandh_iya4451</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>jcarrey15</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>joozef_youssef</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>elmir.a9754</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>hhuber843</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>jose_luis3142</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>gayatri.koujalagi</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>shiva825307</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>krjeet62shivans</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
         <v>0</v>
       </c>
     </row>
